--- a/src/main/networks/rina/complexity.xlsx
+++ b/src/main/networks/rina/complexity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C15B18-FEF3-48CE-88C3-28A545AF1B08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7292A6C-0B77-4533-B965-2052B0E458B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,34 +746,34 @@
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -783,34 +783,34 @@
         <v>21</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -832,22 +832,22 @@
         <v>3</v>
       </c>
       <c r="G4" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H4" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I4" s="14">
         <v>8</v>
       </c>
       <c r="J4" s="14">
+        <v>5</v>
+      </c>
+      <c r="K4" s="14">
         <v>8</v>
       </c>
-      <c r="K4" s="14">
+      <c r="L4" s="14">
         <v>5</v>
-      </c>
-      <c r="L4" s="14">
-        <v>3</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -857,34 +857,34 @@
         <v>17</v>
       </c>
       <c r="C5" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K5" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1"/>
     </row>
@@ -894,34 +894,34 @@
         <v>26</v>
       </c>
       <c r="C6" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="10">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10">
+        <v>7</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2</v>
+      </c>
+      <c r="I6" s="10">
+        <v>8</v>
+      </c>
+      <c r="J6" s="10">
         <v>4</v>
       </c>
-      <c r="G6" s="10">
+      <c r="K6" s="10">
+        <v>7</v>
+      </c>
+      <c r="L6" s="10">
         <v>4</v>
-      </c>
-      <c r="H6" s="10">
-        <v>7</v>
-      </c>
-      <c r="I6" s="10">
-        <v>7</v>
-      </c>
-      <c r="J6" s="10">
-        <v>8</v>
-      </c>
-      <c r="K6" s="10">
-        <v>4</v>
-      </c>
-      <c r="L6" s="10">
-        <v>2</v>
       </c>
       <c r="M6" s="1"/>
     </row>
@@ -930,14 +930,14 @@
       <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
@@ -964,44 +964,44 @@
         <v>9</v>
       </c>
       <c r="C8" s="14">
-        <f>C5+C6+C7</f>
-        <v>3</v>
+        <f t="shared" ref="C8:L8" si="0">C5+C6+C7</f>
+        <v>5</v>
       </c>
       <c r="D8" s="14">
-        <f t="shared" ref="D8:L8" si="0">D5+D6+D7</f>
-        <v>4</v>
-      </c>
-      <c r="E8" s="14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="E8" s="14">
+        <f>E5+E6+E7</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="14">
+        <f>F5+F6+F7</f>
+        <v>4</v>
+      </c>
       <c r="G8" s="14">
+        <f>G5+G6+G7</f>
+        <v>9</v>
+      </c>
+      <c r="H8" s="14">
+        <f>H5+H6+H7</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="14">
+        <f>I5+I6+I7</f>
+        <v>16</v>
+      </c>
+      <c r="J8" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H8" s="14">
+      <c r="K8" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I8" s="14">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J8" s="14">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="K8" s="14">
+      <c r="L8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
-      </c>
-      <c r="L8" s="14">
-        <f t="shared" si="0"/>
-        <v>3</v>
       </c>
       <c r="M8" s="1"/>
     </row>
@@ -1011,34 +1011,34 @@
         <v>19</v>
       </c>
       <c r="C9" s="9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9">
+        <v>11</v>
+      </c>
+      <c r="E9" s="9">
         <v>4</v>
       </c>
-      <c r="D9" s="9">
+      <c r="F9" s="9">
         <v>7</v>
       </c>
-      <c r="E9" s="9">
-        <v>8</v>
-      </c>
-      <c r="F9" s="9">
-        <v>11</v>
-      </c>
       <c r="G9" s="9">
+        <v>22</v>
+      </c>
+      <c r="H9" s="9">
+        <v>4</v>
+      </c>
+      <c r="I9" s="9">
+        <v>32</v>
+      </c>
+      <c r="J9" s="9">
         <v>15</v>
       </c>
-      <c r="H9" s="9">
+      <c r="K9" s="9">
         <v>24</v>
       </c>
-      <c r="I9" s="9">
-        <v>22</v>
-      </c>
-      <c r="J9" s="9">
-        <v>32</v>
-      </c>
-      <c r="K9" s="9">
+      <c r="L9" s="9">
         <v>13</v>
-      </c>
-      <c r="L9" s="9">
-        <v>4</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1047,31 +1047,31 @@
       <c r="B10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
       <c r="G10" s="10">
         <v>2</v>
       </c>
       <c r="H10" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1081,44 +1081,44 @@
         <v>10</v>
       </c>
       <c r="C11" s="14">
-        <f>C9+C10</f>
-        <v>6</v>
+        <f t="shared" ref="C11:L11" si="1">C9+C10</f>
+        <v>8</v>
       </c>
       <c r="D11" s="14">
-        <f t="shared" ref="D11:L11" si="1">D9+D10</f>
-        <v>9</v>
-      </c>
-      <c r="E11" s="14">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F11" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
+      <c r="E11" s="14">
+        <f>E9+E10</f>
+        <v>6</v>
+      </c>
+      <c r="F11" s="14">
+        <f>F9+F10</f>
+        <v>9</v>
+      </c>
       <c r="G11" s="14">
+        <f>G9+G10</f>
+        <v>24</v>
+      </c>
+      <c r="H11" s="14">
+        <f>H9+H10</f>
+        <v>7</v>
+      </c>
+      <c r="I11" s="14">
+        <f>I9+I10</f>
+        <v>33</v>
+      </c>
+      <c r="J11" s="14">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="H11" s="14">
+      <c r="K11" s="14">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I11" s="14">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="J11" s="14">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="K11" s="14">
+      <c r="L11" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
-      </c>
-      <c r="L11" s="14">
-        <f t="shared" si="1"/>
-        <v>7</v>
       </c>
       <c r="M11" s="1"/>
     </row>
@@ -1128,44 +1128,44 @@
         <v>11</v>
       </c>
       <c r="C12" s="9">
-        <f>C4+C8</f>
-        <v>5</v>
+        <f t="shared" ref="C12:K12" si="2">C4+C8</f>
+        <v>7</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" ref="D12:L12" si="2">D4+D8</f>
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="F12" s="9">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
+      <c r="E12" s="9">
+        <f>E4+E8</f>
+        <v>5</v>
+      </c>
+      <c r="F12" s="9">
+        <f>F4+F8</f>
+        <v>7</v>
+      </c>
       <c r="G12" s="9">
+        <f>G4+G8</f>
+        <v>17</v>
+      </c>
+      <c r="H12" s="9">
+        <f>H4+H8</f>
+        <v>6</v>
+      </c>
+      <c r="I12" s="9">
+        <f>I4+I8</f>
+        <v>24</v>
+      </c>
+      <c r="J12" s="9">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H12" s="9">
+      <c r="K12" s="9">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I12" s="9">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="J12" s="9">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="K12" s="9">
-        <f t="shared" ref="K12" si="3">K4+K8</f>
+      <c r="L12" s="9">
+        <f t="shared" ref="L12" si="3">L4+L8</f>
         <v>11</v>
-      </c>
-      <c r="L12" s="9">
-        <f t="shared" si="2"/>
-        <v>6</v>
       </c>
       <c r="M12" s="1"/>
     </row>
@@ -1175,44 +1175,44 @@
         <v>13</v>
       </c>
       <c r="C13" s="10">
-        <f>C8+C11</f>
-        <v>9</v>
+        <f t="shared" ref="C13:K13" si="4">C8+C11</f>
+        <v>13</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" ref="D13:L13" si="4">D8+D11</f>
-        <v>13</v>
-      </c>
-      <c r="E13" s="10">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="F13" s="10">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
+      <c r="E13" s="10">
+        <f>E8+E11</f>
+        <v>9</v>
+      </c>
+      <c r="F13" s="10">
+        <f>F8+F11</f>
+        <v>13</v>
+      </c>
       <c r="G13" s="10">
+        <f>G8+G11</f>
+        <v>33</v>
+      </c>
+      <c r="H13" s="10">
+        <f>H8+H11</f>
+        <v>10</v>
+      </c>
+      <c r="I13" s="10">
+        <f>I8+I11</f>
+        <v>49</v>
+      </c>
+      <c r="J13" s="10">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="H13" s="10">
+      <c r="K13" s="10">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="I13" s="10">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="J13" s="10">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="K13" s="10">
-        <f t="shared" ref="K13" si="5">K8+K11</f>
+      <c r="L13" s="10">
+        <f t="shared" ref="L13" si="5">L8+L11</f>
         <v>20</v>
-      </c>
-      <c r="L13" s="10">
-        <f t="shared" si="4"/>
-        <v>10</v>
       </c>
       <c r="M13" s="1"/>
     </row>
@@ -1222,44 +1222,44 @@
         <v>12</v>
       </c>
       <c r="C14" s="10">
-        <f>C4+C11</f>
-        <v>8</v>
+        <f t="shared" ref="C14:K14" si="6">C4+C11</f>
+        <v>10</v>
       </c>
       <c r="D14" s="10">
-        <f t="shared" ref="D14:L14" si="6">D4+D11</f>
-        <v>12</v>
-      </c>
-      <c r="E14" s="10">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="F14" s="10">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
+      <c r="E14" s="10">
+        <f>E4+E11</f>
+        <v>8</v>
+      </c>
+      <c r="F14" s="10">
+        <f>F4+F11</f>
+        <v>12</v>
+      </c>
       <c r="G14" s="10">
+        <f>G4+G11</f>
+        <v>32</v>
+      </c>
+      <c r="H14" s="10">
+        <f>H4+H11</f>
+        <v>10</v>
+      </c>
+      <c r="I14" s="10">
+        <f>I4+I11</f>
+        <v>41</v>
+      </c>
+      <c r="J14" s="10">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="H14" s="10">
+      <c r="K14" s="10">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="I14" s="10">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="J14" s="10">
-        <f t="shared" si="6"/>
-        <v>41</v>
-      </c>
-      <c r="K14" s="10">
-        <f t="shared" ref="K14" si="7">K4+K11</f>
+      <c r="L14" s="10">
+        <f t="shared" ref="L14" si="7">L4+L11</f>
         <v>19</v>
-      </c>
-      <c r="L14" s="10">
-        <f t="shared" si="6"/>
-        <v>10</v>
       </c>
       <c r="M14" s="1"/>
     </row>
@@ -1269,44 +1269,44 @@
         <v>14</v>
       </c>
       <c r="C15" s="14">
-        <f>C4+C8+C11</f>
-        <v>11</v>
+        <f t="shared" ref="C15:K15" si="8">C4+C8+C11</f>
+        <v>15</v>
       </c>
       <c r="D15" s="14">
-        <f t="shared" ref="D15:L15" si="8">D4+D8+D11</f>
-        <v>16</v>
-      </c>
-      <c r="E15" s="14">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="F15" s="14">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
+      <c r="E15" s="14">
+        <f>E4+E8+E11</f>
+        <v>11</v>
+      </c>
+      <c r="F15" s="14">
+        <f>F4+F8+F11</f>
+        <v>16</v>
+      </c>
       <c r="G15" s="14">
+        <f>G4+G8+G11</f>
+        <v>41</v>
+      </c>
+      <c r="H15" s="14">
+        <f>H4+H8+H11</f>
+        <v>13</v>
+      </c>
+      <c r="I15" s="14">
+        <f>I4+I8+I11</f>
+        <v>57</v>
+      </c>
+      <c r="J15" s="14">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="H15" s="14">
+      <c r="K15" s="14">
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
-      <c r="I15" s="14">
-        <f t="shared" si="8"/>
-        <v>41</v>
-      </c>
-      <c r="J15" s="14">
-        <f t="shared" si="8"/>
-        <v>57</v>
-      </c>
-      <c r="K15" s="14">
-        <f t="shared" ref="K15" si="9">K4+K8+K11</f>
+      <c r="L15" s="14">
+        <f t="shared" ref="L15" si="9">L4+L8+L11</f>
         <v>25</v>
-      </c>
-      <c r="L15" s="14">
-        <f t="shared" si="8"/>
-        <v>13</v>
       </c>
       <c r="M15" s="1"/>
     </row>
@@ -1316,34 +1316,34 @@
         <v>32</v>
       </c>
       <c r="C16" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="9">
+        <v>6</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9">
         <v>4</v>
       </c>
-      <c r="E16" s="9">
+      <c r="G16" s="9">
+        <v>14</v>
+      </c>
+      <c r="H16" s="9">
         <v>4</v>
       </c>
-      <c r="F16" s="9">
-        <v>6</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="I16" s="9">
+        <v>15</v>
+      </c>
+      <c r="J16" s="9">
         <v>8</v>
       </c>
-      <c r="H16" s="9">
+      <c r="K16" s="9">
         <v>14</v>
       </c>
-      <c r="I16" s="9">
-        <v>14</v>
-      </c>
-      <c r="J16" s="9">
-        <v>15</v>
-      </c>
-      <c r="K16" s="9">
+      <c r="L16" s="9">
         <v>8</v>
-      </c>
-      <c r="L16" s="9">
-        <v>4</v>
       </c>
       <c r="M16" s="1"/>
     </row>
@@ -1365,22 +1365,22 @@
         <v>2</v>
       </c>
       <c r="G17" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H17" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I17" s="10">
         <v>7</v>
       </c>
       <c r="J17" s="10">
+        <v>4</v>
+      </c>
+      <c r="K17" s="10">
         <v>7</v>
       </c>
-      <c r="K17" s="10">
+      <c r="L17" s="10">
         <v>4</v>
-      </c>
-      <c r="L17" s="10">
-        <v>2</v>
       </c>
       <c r="M17" s="1"/>
     </row>
@@ -1390,44 +1390,44 @@
         <v>15</v>
       </c>
       <c r="C18" s="15">
-        <f>C16+C17</f>
-        <v>3</v>
+        <f t="shared" ref="C18:K18" si="10">C16+C17</f>
+        <v>5</v>
       </c>
       <c r="D18" s="15">
-        <f t="shared" ref="D18:L18" si="10">D16+D17</f>
-        <v>6</v>
-      </c>
-      <c r="E18" s="15">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="F18" s="15">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
+      <c r="E18" s="15">
+        <f>E16+E17</f>
+        <v>3</v>
+      </c>
+      <c r="F18" s="15">
+        <f>F16+F17</f>
+        <v>6</v>
+      </c>
       <c r="G18" s="15">
+        <f>G16+G17</f>
+        <v>21</v>
+      </c>
+      <c r="H18" s="15">
+        <f>H16+H17</f>
+        <v>6</v>
+      </c>
+      <c r="I18" s="15">
+        <f>I16+I17</f>
+        <v>22</v>
+      </c>
+      <c r="J18" s="15">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="H18" s="15">
+      <c r="K18" s="15">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="I18" s="15">
-        <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="J18" s="15">
-        <f t="shared" si="10"/>
-        <v>22</v>
-      </c>
-      <c r="K18" s="15">
-        <f t="shared" ref="K18" si="11">K16+K17</f>
+      <c r="L18" s="15">
+        <f t="shared" ref="L18" si="11">L16+L17</f>
         <v>12</v>
-      </c>
-      <c r="L18" s="15">
-        <f t="shared" si="10"/>
-        <v>6</v>
       </c>
       <c r="M18" s="1"/>
     </row>
@@ -1437,44 +1437,44 @@
         <v>16</v>
       </c>
       <c r="C19" s="16">
-        <f>C15+C18</f>
-        <v>14</v>
+        <f t="shared" ref="C19:K19" si="12">C15+C18</f>
+        <v>20</v>
       </c>
       <c r="D19" s="16">
-        <f t="shared" ref="D19:L19" si="12">D15+D18</f>
-        <v>22</v>
-      </c>
-      <c r="E19" s="16">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="F19" s="16">
         <f t="shared" si="12"/>
         <v>28</v>
       </c>
+      <c r="E19" s="16">
+        <f>E15+E18</f>
+        <v>14</v>
+      </c>
+      <c r="F19" s="16">
+        <f>F15+F18</f>
+        <v>22</v>
+      </c>
       <c r="G19" s="16">
+        <f>G15+G18</f>
+        <v>62</v>
+      </c>
+      <c r="H19" s="16">
+        <f>H15+H18</f>
+        <v>19</v>
+      </c>
+      <c r="I19" s="16">
+        <f>I15+I18</f>
+        <v>79</v>
+      </c>
+      <c r="J19" s="16">
         <f t="shared" si="12"/>
         <v>41</v>
       </c>
-      <c r="H19" s="16">
+      <c r="K19" s="16">
         <f t="shared" si="12"/>
         <v>65</v>
       </c>
-      <c r="I19" s="16">
-        <f t="shared" si="12"/>
-        <v>62</v>
-      </c>
-      <c r="J19" s="16">
-        <f t="shared" si="12"/>
-        <v>79</v>
-      </c>
-      <c r="K19" s="16">
-        <f t="shared" ref="K19" si="13">K15+K18</f>
+      <c r="L19" s="16">
+        <f t="shared" ref="L19" si="13">L15+L18</f>
         <v>37</v>
-      </c>
-      <c r="L19" s="16">
-        <f t="shared" si="12"/>
-        <v>19</v>
       </c>
       <c r="M19" s="1"/>
     </row>
@@ -1497,7 +1497,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J3 G3:H3" twoDigitTextYear="1"/>
+    <ignoredError sqref="I3:K3" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>